--- a/C++/Tree/Formulae sheet.xlsx
+++ b/C++/Tree/Formulae sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Additional Learning\Data Structures and algorithms\C++\Tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\Data-Structures-and-Algorithm\C++\Tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE163D79-055F-492E-899D-3BD648310D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCEF2A6-57CC-47F3-BE2D-BF824D0573C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{18BC3EE6-FBFC-441B-B9F1-473AA2E461ED}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Number of maximum height Binary Trees</t>
   </si>
@@ -41,9 +33,6 @@
     <t>2n*Cn / n+1</t>
   </si>
   <si>
-    <t>2^n-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of Binary Trees </t>
   </si>
   <si>
@@ -81,6 +70,45 @@
   </si>
   <si>
     <t>h = log(n+1) - 1</t>
+  </si>
+  <si>
+    <t>2^(n-1)</t>
+  </si>
+  <si>
+    <t>For a binary tree, number of nodes with deg(0) = 1 + number of nodes with deg(2)</t>
+  </si>
+  <si>
+    <t>Binary tree</t>
+  </si>
+  <si>
+    <t>Strict Binary Tree</t>
+  </si>
+  <si>
+    <t>n = 2h+1</t>
+  </si>
+  <si>
+    <t>n = 2^(h+1)-1</t>
+  </si>
+  <si>
+    <t>h = (n-1)/2</t>
+  </si>
+  <si>
+    <t>For a strict binary tree, number of external nodes = 1 + internal node</t>
+  </si>
+  <si>
+    <t>Strict m-array Tree</t>
+  </si>
+  <si>
+    <t>n = mh+1</t>
+  </si>
+  <si>
+    <t>n = m^(h+1)-1 / (m-1)</t>
+  </si>
+  <si>
+    <t>h = (n-1)/m</t>
+  </si>
+  <si>
+    <t>h = log base m [n(m-1)+1] - 1</t>
   </si>
 </sst>
 </file>
@@ -152,13 +180,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1311704</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -519,82 +547,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1323C575-3921-4C8F-ADF6-BCC4EE70E35E}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
